--- a/data/Formatos.xlsx
+++ b/data/Formatos.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t xml:space="preserve">Formato</t>
   </si>
@@ -23,7 +23,37 @@
     <t xml:space="preserve">Maximo</t>
   </si>
   <si>
-    <t xml:space="preserve">Nuevo Formato</t>
+    <t xml:space="preserve">Orden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEQUEÑO XS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">250D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEQUEÑO S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANEL M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANEL L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GRANEL XL</t>
   </si>
 </sst>
 </file>
@@ -365,16 +395,148 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>124</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>125</v>
+      </c>
+      <c r="C3" t="n">
+        <v>144</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="n">
+        <v>145</v>
+      </c>
+      <c r="C4" t="n">
+        <v>199</v>
+      </c>
+      <c r="D4" t="n">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="n">
         <v>200</v>
+      </c>
+      <c r="C5" t="n">
+        <v>249</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="n">
+        <v>250</v>
+      </c>
+      <c r="C6" t="n">
+        <v>284</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="n">
+        <v>285</v>
+      </c>
+      <c r="C7" t="n">
+        <v>399</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="n">
+        <v>400</v>
+      </c>
+      <c r="C8" t="n">
+        <v>455</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="n">
+        <v>456</v>
+      </c>
+      <c r="C9" t="n">
+        <v>499</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="n">
+        <v>500</v>
+      </c>
+      <c r="C10" t="n">
+        <v>570</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="n">
+        <v>571</v>
+      </c>
+      <c r="C11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data/Formatos.xlsx
+++ b/data/Formatos.xlsx
@@ -519,7 +519,7 @@
         <v>500</v>
       </c>
       <c r="C10" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="D10" t="n">
         <v>9</v>
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>571</v>
+        <v>1001</v>
       </c>
       <c r="C11" t="n">
         <v>5000</v>

--- a/data/Formatos.xlsx
+++ b/data/Formatos.xlsx
@@ -1,67 +1,74 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://verdimed-my.sharepoint.com/personal/mblaya_verdimed_com/Documents/R/CalculadoraPesoNeto/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_C2CE303C9A41E3713AB3D84B0B105C63981FBCB2" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7719B0B8-6D9A-4E9E-85B6-CB14A5DC09C0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Formatos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">Formato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEQUEÑO XS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">250D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEQUEÑO S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRANEL M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRANEL L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRANEL XL</t>
+    <t>Formato</t>
+  </si>
+  <si>
+    <t>Minimo</t>
+  </si>
+  <si>
+    <t>Maximo</t>
+  </si>
+  <si>
+    <t>Orden</t>
+  </si>
+  <si>
+    <t>PEQUEÑO XS</t>
+  </si>
+  <si>
+    <t>250D</t>
+  </si>
+  <si>
+    <t>PEQUEÑO S</t>
+  </si>
+  <si>
+    <t>400D</t>
+  </si>
+  <si>
+    <t>500D</t>
+  </si>
+  <si>
+    <t>GRANEL M</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>GRANEL L</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>GRANEL XL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,7 +104,20 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,14 +398,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -399,148 +421,148 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>124</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>125</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>144</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>145</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>199</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>200</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>249</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>250</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>284</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>285</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>399</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>455</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>456</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>499</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>500</v>
       </c>
-      <c r="C10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="D10" t="n">
+      <c r="C10">
+        <v>570</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11">
+        <v>571</v>
+      </c>
+      <c r="C11">
         <v>5000</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>